--- a/RR/excel/vendor/VendorLiveReport.xlsx
+++ b/RR/excel/vendor/VendorLiveReport.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33520" uniqueCount="2775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37567" uniqueCount="2775">
   <si>
     <t>Country Name</t>
   </si>

--- a/RR/excel/vendor/VendorLiveReport.xlsx
+++ b/RR/excel/vendor/VendorLiveReport.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33520" uniqueCount="2775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34186" uniqueCount="2775">
   <si>
     <t>Country Name</t>
   </si>

--- a/RR/excel/vendor/VendorLiveReport.xlsx
+++ b/RR/excel/vendor/VendorLiveReport.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21946" uniqueCount="3378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41668" uniqueCount="3380">
   <si>
     <t>Country Name</t>
   </si>
@@ -10163,6 +10163,12 @@
   </si>
   <si>
     <t>104</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
 </sst>
 </file>
@@ -33123,7 +33129,7 @@
         <v>613</v>
       </c>
       <c r="C1071" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1071" t="s">
         <v>2407</v>
@@ -33143,7 +33149,7 @@
         <v>1949</v>
       </c>
       <c r="C1072" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1072" t="s">
         <v>2408</v>
@@ -33163,7 +33169,7 @@
         <v>1942</v>
       </c>
       <c r="C1073" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1073" t="s">
         <v>2409</v>
@@ -33183,7 +33189,7 @@
         <v>1942</v>
       </c>
       <c r="C1074" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1074" t="s">
         <v>2411</v>
@@ -33203,7 +33209,7 @@
         <v>1942</v>
       </c>
       <c r="C1075" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1075" t="s">
         <v>2413</v>
@@ -33223,7 +33229,7 @@
         <v>1942</v>
       </c>
       <c r="C1076" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1076" t="s">
         <v>2415</v>
@@ -33243,7 +33249,7 @@
         <v>1942</v>
       </c>
       <c r="C1077" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1077" t="s">
         <v>2418</v>
@@ -33263,7 +33269,7 @@
         <v>1942</v>
       </c>
       <c r="C1078" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1078" t="s">
         <v>2420</v>
@@ -33283,7 +33289,7 @@
         <v>1942</v>
       </c>
       <c r="C1079" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1079" t="s">
         <v>2423</v>
@@ -33303,7 +33309,7 @@
         <v>1942</v>
       </c>
       <c r="C1080" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1080" t="s">
         <v>2424</v>
@@ -33323,7 +33329,7 @@
         <v>1942</v>
       </c>
       <c r="C1081" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1081" t="s">
         <v>2427</v>
@@ -33343,7 +33349,7 @@
         <v>1942</v>
       </c>
       <c r="C1082" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1082" t="s">
         <v>2429</v>
@@ -33363,7 +33369,7 @@
         <v>1942</v>
       </c>
       <c r="C1083" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1083" t="s">
         <v>2431</v>
@@ -33383,7 +33389,7 @@
         <v>1942</v>
       </c>
       <c r="C1084" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1084" t="s">
         <v>2432</v>
@@ -33403,7 +33409,7 @@
         <v>1942</v>
       </c>
       <c r="C1085" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1085" t="s">
         <v>2434</v>
@@ -33423,7 +33429,7 @@
         <v>1942</v>
       </c>
       <c r="C1086" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1086" t="s">
         <v>2438</v>
@@ -33440,19 +33446,19 @@
         <v>539</v>
       </c>
       <c r="B1087" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1087" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1087" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="E1087" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="F1087" t="s">
-        <v>2442</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1088">
@@ -33463,16 +33469,16 @@
         <v>1942</v>
       </c>
       <c r="C1088" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1088" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="E1088" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="F1088" t="s">
-        <v>2233</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1089">
@@ -33483,16 +33489,16 @@
         <v>1942</v>
       </c>
       <c r="C1089" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1089" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="E1089" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="F1089" t="s">
-        <v>1967</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1090">
@@ -33503,16 +33509,16 @@
         <v>1942</v>
       </c>
       <c r="C1090" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1090" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="E1090" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="F1090" t="s">
-        <v>2056</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1091">
@@ -33523,16 +33529,16 @@
         <v>1942</v>
       </c>
       <c r="C1091" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1091" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E1091" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="F1091" t="s">
-        <v>2233</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1092">
@@ -33543,16 +33549,16 @@
         <v>1942</v>
       </c>
       <c r="C1092" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1092" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="E1092" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="F1092" t="s">
-        <v>2453</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1093">
@@ -33563,16 +33569,16 @@
         <v>1942</v>
       </c>
       <c r="C1093" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1093" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="E1093" t="s">
-        <v>2455</v>
+        <v>2037</v>
       </c>
       <c r="F1093" t="s">
-        <v>2233</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1094">
@@ -33583,16 +33589,16 @@
         <v>1942</v>
       </c>
       <c r="C1094" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1094" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="E1094" t="s">
-        <v>2037</v>
+        <v>2458</v>
       </c>
       <c r="F1094" t="s">
-        <v>2038</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1095">
@@ -33603,16 +33609,16 @@
         <v>1942</v>
       </c>
       <c r="C1095" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1095" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="E1095" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="F1095" t="s">
-        <v>2226</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1096">
@@ -33620,19 +33626,19 @@
         <v>539</v>
       </c>
       <c r="B1096" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1096" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1096" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="E1096" t="s">
-        <v>2460</v>
+        <v>2058</v>
       </c>
       <c r="F1096" t="s">
-        <v>2280</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1097">
@@ -33640,19 +33646,19 @@
         <v>539</v>
       </c>
       <c r="B1097" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1097" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1097" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="E1097" t="s">
-        <v>2058</v>
+        <v>2070</v>
       </c>
       <c r="F1097" t="s">
-        <v>2059</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1098">
@@ -33663,16 +33669,16 @@
         <v>1942</v>
       </c>
       <c r="C1098" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1098" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="E1098" t="s">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="F1098" t="s">
-        <v>2071</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1099">
@@ -33683,16 +33689,16 @@
         <v>1942</v>
       </c>
       <c r="C1099" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1099" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="E1099" t="s">
-        <v>2076</v>
+        <v>2466</v>
       </c>
       <c r="F1099" t="s">
-        <v>2464</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1100">
@@ -33703,16 +33709,16 @@
         <v>1942</v>
       </c>
       <c r="C1100" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1100" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="E1100" t="s">
-        <v>2466</v>
+        <v>2073</v>
       </c>
       <c r="F1100" t="s">
-        <v>2417</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1101">
@@ -33723,16 +33729,16 @@
         <v>1942</v>
       </c>
       <c r="C1101" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1101" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="E1101" t="s">
-        <v>2073</v>
+        <v>2469</v>
       </c>
       <c r="F1101" t="s">
-        <v>2074</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1102">
@@ -33743,16 +33749,16 @@
         <v>1942</v>
       </c>
       <c r="C1102" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1102" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="E1102" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="F1102" t="s">
-        <v>2417</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1103">
@@ -33760,19 +33766,19 @@
         <v>539</v>
       </c>
       <c r="B1103" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="C1103" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1103" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="E1103" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="F1103" t="s">
-        <v>2280</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1104">
@@ -33780,19 +33786,19 @@
         <v>539</v>
       </c>
       <c r="B1104" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1104" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1104" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="E1104" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="F1104" t="s">
-        <v>2474</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1105">
@@ -33803,16 +33809,16 @@
         <v>1942</v>
       </c>
       <c r="C1105" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1105" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="E1105" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="F1105" t="s">
-        <v>1967</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1106">
@@ -33823,16 +33829,16 @@
         <v>1942</v>
       </c>
       <c r="C1106" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1106" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="E1106" t="s">
-        <v>2478</v>
+        <v>1256</v>
       </c>
       <c r="F1106" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1107">
@@ -33843,16 +33849,16 @@
         <v>1942</v>
       </c>
       <c r="C1107" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1107" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="E1107" t="s">
-        <v>1256</v>
+        <v>2483</v>
       </c>
       <c r="F1107" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1108">
@@ -33863,16 +33869,16 @@
         <v>1942</v>
       </c>
       <c r="C1108" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1108" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="E1108" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="F1108" t="s">
-        <v>2484</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1109">
@@ -33883,16 +33889,16 @@
         <v>1942</v>
       </c>
       <c r="C1109" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1109" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="E1109" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="F1109" t="s">
-        <v>1967</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1110">
@@ -33903,16 +33909,16 @@
         <v>1942</v>
       </c>
       <c r="C1110" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1110" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="E1110" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="F1110" t="s">
-        <v>2056</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1111">
@@ -33923,16 +33929,16 @@
         <v>1942</v>
       </c>
       <c r="C1111" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1111" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="E1111" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="F1111" t="s">
-        <v>2491</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1112">
@@ -33940,19 +33946,19 @@
         <v>539</v>
       </c>
       <c r="B1112" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="C1112" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1112" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="E1112" t="s">
-        <v>2493</v>
+        <v>1931</v>
       </c>
       <c r="F1112" t="s">
-        <v>2233</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1113">
@@ -33960,19 +33966,19 @@
         <v>539</v>
       </c>
       <c r="B1113" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1113" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1113" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="E1113" t="s">
-        <v>1931</v>
+        <v>2496</v>
       </c>
       <c r="F1113" t="s">
-        <v>2091</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1114">
@@ -33983,16 +33989,16 @@
         <v>1942</v>
       </c>
       <c r="C1114" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1114" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="E1114" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="F1114" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1115">
@@ -34003,16 +34009,16 @@
         <v>1942</v>
       </c>
       <c r="C1115" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1115" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="E1115" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="F1115" t="s">
-        <v>2500</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1116">
@@ -34023,13 +34029,13 @@
         <v>1942</v>
       </c>
       <c r="C1116" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1116" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="E1116" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="F1116" t="s">
         <v>1967</v>
@@ -34043,16 +34049,16 @@
         <v>1942</v>
       </c>
       <c r="C1117" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1117" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="E1117" t="s">
-        <v>2504</v>
+        <v>2120</v>
       </c>
       <c r="F1117" t="s">
-        <v>1967</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1118">
@@ -34063,16 +34069,16 @@
         <v>1942</v>
       </c>
       <c r="C1118" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1118" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="E1118" t="s">
-        <v>2120</v>
+        <v>2507</v>
       </c>
       <c r="F1118" t="s">
-        <v>2121</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1119">
@@ -34083,16 +34089,16 @@
         <v>1942</v>
       </c>
       <c r="C1119" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1119" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="E1119" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="F1119" t="s">
-        <v>1967</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1120">
@@ -34100,19 +34106,19 @@
         <v>539</v>
       </c>
       <c r="B1120" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1120" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1120" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="E1120" t="s">
-        <v>2509</v>
+        <v>2137</v>
       </c>
       <c r="F1120" t="s">
-        <v>2510</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1121">
@@ -34123,16 +34129,16 @@
         <v>1949</v>
       </c>
       <c r="C1121" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1121" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E1121" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="F1121" t="s">
-        <v>2138</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1122">
@@ -34143,16 +34149,16 @@
         <v>1949</v>
       </c>
       <c r="C1122" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1122" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="E1122" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="F1122" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1123">
@@ -34160,19 +34166,19 @@
         <v>539</v>
       </c>
       <c r="B1123" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1123" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1123" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="E1123" t="s">
-        <v>2143</v>
+        <v>2517</v>
       </c>
       <c r="F1123" t="s">
-        <v>2515</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1124">
@@ -34183,16 +34189,16 @@
         <v>1942</v>
       </c>
       <c r="C1124" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1124" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="E1124" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="F1124" t="s">
-        <v>1967</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1125">
@@ -34203,16 +34209,16 @@
         <v>1942</v>
       </c>
       <c r="C1125" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1125" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="E1125" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="F1125" t="s">
-        <v>2233</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1126">
@@ -34223,16 +34229,16 @@
         <v>1942</v>
       </c>
       <c r="C1126" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1126" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="E1126" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="F1126" t="s">
-        <v>2308</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1127">
@@ -34243,16 +34249,16 @@
         <v>1942</v>
       </c>
       <c r="C1127" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1127" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="E1127" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="F1127" t="s">
-        <v>2479</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1128">
@@ -34263,16 +34269,16 @@
         <v>1942</v>
       </c>
       <c r="C1128" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1128" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="E1128" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="F1128" t="s">
-        <v>2308</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1129">
@@ -34280,19 +34286,19 @@
         <v>539</v>
       </c>
       <c r="B1129" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1129" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1129" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="E1129" t="s">
-        <v>2527</v>
+        <v>2160</v>
       </c>
       <c r="F1129" t="s">
-        <v>2233</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1130">
@@ -34300,19 +34306,19 @@
         <v>539</v>
       </c>
       <c r="B1130" t="s">
-        <v>1949</v>
+        <v>2529</v>
       </c>
       <c r="C1130" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1130" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="E1130" t="s">
-        <v>2160</v>
+        <v>2531</v>
       </c>
       <c r="F1130" t="s">
-        <v>2059</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1131">
@@ -34320,19 +34326,19 @@
         <v>539</v>
       </c>
       <c r="B1131" t="s">
-        <v>2529</v>
+        <v>1942</v>
       </c>
       <c r="C1131" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1131" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="E1131" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="F1131" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1132">
@@ -34343,16 +34349,16 @@
         <v>1942</v>
       </c>
       <c r="C1132" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1132" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="E1132" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="F1132" t="s">
-        <v>2535</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1133">
@@ -34363,16 +34369,16 @@
         <v>1942</v>
       </c>
       <c r="C1133" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1133" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="E1133" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="F1133" t="s">
-        <v>2479</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1134">
@@ -34383,16 +34389,16 @@
         <v>1942</v>
       </c>
       <c r="C1134" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1134" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="E1134" t="s">
-        <v>2539</v>
+        <v>2188</v>
       </c>
       <c r="F1134" t="s">
-        <v>1967</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1135">
@@ -34403,16 +34409,16 @@
         <v>1942</v>
       </c>
       <c r="C1135" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1135" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="E1135" t="s">
-        <v>2188</v>
+        <v>2542</v>
       </c>
       <c r="F1135" t="s">
-        <v>2189</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1136">
@@ -34423,16 +34429,16 @@
         <v>1942</v>
       </c>
       <c r="C1136" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1136" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="E1136" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="F1136" t="s">
-        <v>2497</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1137">
@@ -34440,19 +34446,19 @@
         <v>539</v>
       </c>
       <c r="B1137" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1137" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1137" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="E1137" t="s">
-        <v>2544</v>
+        <v>2235</v>
       </c>
       <c r="F1137" t="s">
-        <v>1967</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1138">
@@ -34463,16 +34469,16 @@
         <v>1949</v>
       </c>
       <c r="C1138" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1138" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="E1138" t="s">
-        <v>2235</v>
+        <v>2199</v>
       </c>
       <c r="F1138" t="s">
-        <v>2236</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1139">
@@ -34480,19 +34486,19 @@
         <v>539</v>
       </c>
       <c r="B1139" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1139" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1139" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="E1139" t="s">
-        <v>2199</v>
+        <v>2548</v>
       </c>
       <c r="F1139" t="s">
-        <v>2059</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1140">
@@ -34500,19 +34506,19 @@
         <v>539</v>
       </c>
       <c r="B1140" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1140" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1140" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="E1140" t="s">
-        <v>2548</v>
+        <v>2209</v>
       </c>
       <c r="F1140" t="s">
-        <v>1967</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1141">
@@ -34523,16 +34529,16 @@
         <v>1949</v>
       </c>
       <c r="C1141" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1141" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="E1141" t="s">
-        <v>2209</v>
+        <v>2214</v>
       </c>
       <c r="F1141" t="s">
-        <v>2210</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1142">
@@ -34540,19 +34546,19 @@
         <v>539</v>
       </c>
       <c r="B1142" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1142" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1142" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="E1142" t="s">
-        <v>2214</v>
+        <v>2553</v>
       </c>
       <c r="F1142" t="s">
-        <v>2551</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1143">
@@ -34563,13 +34569,13 @@
         <v>1942</v>
       </c>
       <c r="C1143" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1143" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="E1143" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="F1143" t="s">
         <v>1967</v>
@@ -34583,13 +34589,13 @@
         <v>1942</v>
       </c>
       <c r="C1144" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1144" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="E1144" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="F1144" t="s">
         <v>1967</v>
@@ -34603,16 +34609,16 @@
         <v>1942</v>
       </c>
       <c r="C1145" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1145" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="E1145" t="s">
-        <v>2557</v>
+        <v>2219</v>
       </c>
       <c r="F1145" t="s">
-        <v>1967</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1146">
@@ -34623,16 +34629,16 @@
         <v>1942</v>
       </c>
       <c r="C1146" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1146" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="E1146" t="s">
-        <v>2219</v>
+        <v>2560</v>
       </c>
       <c r="F1146" t="s">
-        <v>2220</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1147">
@@ -34643,13 +34649,13 @@
         <v>1942</v>
       </c>
       <c r="C1147" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1147" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="E1147" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="F1147" t="s">
         <v>2280</v>
@@ -34660,19 +34666,19 @@
         <v>539</v>
       </c>
       <c r="B1148" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1148" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1148" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="E1148" t="s">
-        <v>2562</v>
+        <v>2222</v>
       </c>
       <c r="F1148" t="s">
-        <v>2280</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1149">
@@ -34680,19 +34686,19 @@
         <v>539</v>
       </c>
       <c r="B1149" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1149" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1149" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="E1149" t="s">
-        <v>2222</v>
+        <v>2565</v>
       </c>
       <c r="F1149" t="s">
-        <v>2223</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1150">
@@ -34703,16 +34709,16 @@
         <v>1942</v>
       </c>
       <c r="C1150" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1150" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="E1150" t="s">
-        <v>2565</v>
+        <v>1286</v>
       </c>
       <c r="F1150" t="s">
-        <v>2233</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1151">
@@ -34723,16 +34729,16 @@
         <v>1942</v>
       </c>
       <c r="C1151" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1151" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="E1151" t="s">
-        <v>1286</v>
+        <v>2568</v>
       </c>
       <c r="F1151" t="s">
-        <v>2056</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="1152">
@@ -34743,16 +34749,16 @@
         <v>1942</v>
       </c>
       <c r="C1152" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1152" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="E1152" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="F1152" t="s">
-        <v>2569</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1153">
@@ -34763,16 +34769,16 @@
         <v>1942</v>
       </c>
       <c r="C1153" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1153" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="E1153" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="F1153" t="s">
-        <v>2280</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1154">
@@ -34783,16 +34789,16 @@
         <v>1942</v>
       </c>
       <c r="C1154" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1154" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="E1154" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="F1154" t="s">
-        <v>1967</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1155">
@@ -34803,16 +34809,16 @@
         <v>1942</v>
       </c>
       <c r="C1155" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1155" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="E1155" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="F1155" t="s">
-        <v>2233</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1156">
@@ -34823,16 +34829,16 @@
         <v>1942</v>
       </c>
       <c r="C1156" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1156" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="E1156" t="s">
-        <v>2577</v>
+        <v>2253</v>
       </c>
       <c r="F1156" t="s">
-        <v>2056</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1157">
@@ -34843,16 +34849,16 @@
         <v>1942</v>
       </c>
       <c r="C1157" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1157" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="E1157" t="s">
-        <v>2253</v>
+        <v>2580</v>
       </c>
       <c r="F1157" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1158">
@@ -34863,16 +34869,16 @@
         <v>1942</v>
       </c>
       <c r="C1158" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1158" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="E1158" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="F1158" t="s">
-        <v>1967</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1159">
@@ -34880,19 +34886,19 @@
         <v>539</v>
       </c>
       <c r="B1159" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1159" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1159" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="E1159" t="s">
-        <v>2582</v>
+        <v>2261</v>
       </c>
       <c r="F1159" t="s">
-        <v>2056</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1160">
@@ -34900,19 +34906,19 @@
         <v>539</v>
       </c>
       <c r="B1160" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1160" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1160" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="E1160" t="s">
-        <v>2261</v>
+        <v>2276</v>
       </c>
       <c r="F1160" t="s">
-        <v>2262</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1161">
@@ -34920,19 +34926,19 @@
         <v>539</v>
       </c>
       <c r="B1161" t="s">
-        <v>1942</v>
+        <v>2529</v>
       </c>
       <c r="C1161" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1161" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="E1161" t="s">
-        <v>2276</v>
+        <v>2586</v>
       </c>
       <c r="F1161" t="s">
-        <v>2277</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1162">
@@ -34940,19 +34946,19 @@
         <v>539</v>
       </c>
       <c r="B1162" t="s">
-        <v>2529</v>
+        <v>1942</v>
       </c>
       <c r="C1162" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1162" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="E1162" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="F1162" t="s">
-        <v>2532</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1163">
@@ -34963,16 +34969,16 @@
         <v>1942</v>
       </c>
       <c r="C1163" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1163" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="E1163" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="F1163" t="s">
-        <v>1967</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1164">
@@ -34983,16 +34989,16 @@
         <v>1942</v>
       </c>
       <c r="C1164" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1164" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="E1164" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="F1164" t="s">
-        <v>2591</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1165">
@@ -35003,16 +35009,16 @@
         <v>1942</v>
       </c>
       <c r="C1165" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1165" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="E1165" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="F1165" t="s">
-        <v>2050</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1166">
@@ -35023,16 +35029,16 @@
         <v>1942</v>
       </c>
       <c r="C1166" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1166" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="E1166" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="F1166" t="s">
-        <v>2481</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1167">
@@ -35040,19 +35046,19 @@
         <v>539</v>
       </c>
       <c r="B1167" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="C1167" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1167" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="E1167" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="F1167" t="s">
-        <v>1967</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1168">
@@ -35060,19 +35066,19 @@
         <v>539</v>
       </c>
       <c r="B1168" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1168" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1168" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="E1168" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="F1168" t="s">
-        <v>2600</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1169">
@@ -35083,16 +35089,16 @@
         <v>1942</v>
       </c>
       <c r="C1169" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1169" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="E1169" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="F1169" t="s">
-        <v>2479</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1170">
@@ -35100,19 +35106,19 @@
         <v>539</v>
       </c>
       <c r="B1170" t="s">
-        <v>1942</v>
+        <v>613</v>
       </c>
       <c r="C1170" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1170" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="E1170" t="s">
-        <v>2604</v>
+        <v>2330</v>
       </c>
       <c r="F1170" t="s">
-        <v>2056</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1171">
@@ -35123,13 +35129,13 @@
         <v>613</v>
       </c>
       <c r="C1171" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1171" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="E1171" t="s">
-        <v>2330</v>
+        <v>670</v>
       </c>
       <c r="F1171" t="s">
         <v>10</v>
@@ -35143,13 +35149,13 @@
         <v>613</v>
       </c>
       <c r="C1172" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1172" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="E1172" t="s">
-        <v>670</v>
+        <v>2312</v>
       </c>
       <c r="F1172" t="s">
         <v>10</v>
@@ -35163,13 +35169,13 @@
         <v>613</v>
       </c>
       <c r="C1173" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1173" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="E1173" t="s">
-        <v>2312</v>
+        <v>1936</v>
       </c>
       <c r="F1173" t="s">
         <v>10</v>
@@ -35183,13 +35189,13 @@
         <v>613</v>
       </c>
       <c r="C1174" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1174" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E1174" t="s">
-        <v>1936</v>
+        <v>2610</v>
       </c>
       <c r="F1174" t="s">
         <v>10</v>
@@ -35203,13 +35209,13 @@
         <v>613</v>
       </c>
       <c r="C1175" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1175" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="E1175" t="s">
-        <v>2610</v>
+        <v>2276</v>
       </c>
       <c r="F1175" t="s">
         <v>10</v>
@@ -35223,13 +35229,13 @@
         <v>613</v>
       </c>
       <c r="C1176" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1176" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="E1176" t="s">
-        <v>2276</v>
+        <v>2441</v>
       </c>
       <c r="F1176" t="s">
         <v>10</v>
@@ -35240,16 +35246,16 @@
         <v>539</v>
       </c>
       <c r="B1177" t="s">
-        <v>613</v>
+        <v>10</v>
       </c>
       <c r="C1177" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="D1177" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="E1177" t="s">
-        <v>2441</v>
+        <v>2614</v>
       </c>
       <c r="F1177" t="s">
         <v>10</v>
@@ -35257,22 +35263,22 @@
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B1178" t="s">
-        <v>10</v>
+        <v>1942</v>
       </c>
       <c r="C1178" t="s">
-        <v>3376</v>
+        <v>3379</v>
       </c>
       <c r="D1178" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="E1178" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="F1178" t="s">
-        <v>10</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1179">
@@ -35283,16 +35289,16 @@
         <v>1942</v>
       </c>
       <c r="C1179" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1179" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="E1179" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="F1179" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1180">
@@ -35303,16 +35309,16 @@
         <v>1942</v>
       </c>
       <c r="C1180" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1180" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="E1180" t="s">
-        <v>2620</v>
+        <v>1953</v>
       </c>
       <c r="F1180" t="s">
-        <v>2621</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1181">
@@ -35323,16 +35329,16 @@
         <v>1942</v>
       </c>
       <c r="C1181" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1181" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="E1181" t="s">
-        <v>1953</v>
+        <v>2624</v>
       </c>
       <c r="F1181" t="s">
-        <v>1954</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1182">
@@ -35343,13 +35349,13 @@
         <v>1942</v>
       </c>
       <c r="C1182" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1182" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="E1182" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="F1182" t="s">
         <v>2625</v>
@@ -35360,19 +35366,19 @@
         <v>542</v>
       </c>
       <c r="B1183" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="C1183" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1183" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="E1183" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="F1183" t="s">
-        <v>2625</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1184">
@@ -35380,19 +35386,19 @@
         <v>542</v>
       </c>
       <c r="B1184" t="s">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="C1184" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1184" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="E1184" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="F1184" t="s">
-        <v>2226</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1185">
@@ -35400,19 +35406,19 @@
         <v>542</v>
       </c>
       <c r="B1185" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1185" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1185" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="E1185" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="F1185" t="s">
-        <v>2632</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1186">
@@ -35423,16 +35429,16 @@
         <v>1942</v>
       </c>
       <c r="C1186" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1186" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="E1186" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="F1186" t="s">
-        <v>1967</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1187">
@@ -35443,16 +35449,16 @@
         <v>1942</v>
       </c>
       <c r="C1187" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1187" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="E1187" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="F1187" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1188">
@@ -35463,16 +35469,16 @@
         <v>1942</v>
       </c>
       <c r="C1188" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1188" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="E1188" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="F1188" t="s">
-        <v>2640</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1189">
@@ -35483,16 +35489,16 @@
         <v>1942</v>
       </c>
       <c r="C1189" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1189" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="E1189" t="s">
-        <v>2642</v>
+        <v>1962</v>
       </c>
       <c r="F1189" t="s">
-        <v>2479</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1190">
@@ -35500,19 +35506,19 @@
         <v>542</v>
       </c>
       <c r="B1190" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1190" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1190" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="E1190" t="s">
-        <v>1962</v>
+        <v>2645</v>
       </c>
       <c r="F1190" t="s">
-        <v>1963</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1191">
@@ -35523,16 +35529,16 @@
         <v>1949</v>
       </c>
       <c r="C1191" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1191" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="E1191" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
       <c r="F1191" t="s">
-        <v>2646</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1192">
@@ -35540,19 +35546,19 @@
         <v>542</v>
       </c>
       <c r="B1192" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1192" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1192" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="E1192" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="F1192" t="s">
-        <v>31</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1193">
@@ -35560,19 +35566,19 @@
         <v>542</v>
       </c>
       <c r="B1193" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="C1193" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1193" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="E1193" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="F1193" t="s">
-        <v>2651</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1194">
@@ -35580,19 +35586,19 @@
         <v>542</v>
       </c>
       <c r="B1194" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1194" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1194" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="E1194" t="s">
-        <v>2653</v>
+        <v>2046</v>
       </c>
       <c r="F1194" t="s">
-        <v>2226</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1195">
@@ -35603,16 +35609,16 @@
         <v>1942</v>
       </c>
       <c r="C1195" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1195" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="E1195" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="F1195" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1196">
@@ -35623,16 +35629,16 @@
         <v>1942</v>
       </c>
       <c r="C1196" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1196" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="E1196" t="s">
-        <v>2049</v>
+        <v>2657</v>
       </c>
       <c r="F1196" t="s">
-        <v>2050</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1197">
@@ -35640,19 +35646,19 @@
         <v>542</v>
       </c>
       <c r="B1197" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1197" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1197" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="E1197" t="s">
-        <v>2657</v>
+        <v>2058</v>
       </c>
       <c r="F1197" t="s">
-        <v>2658</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1198">
@@ -35660,19 +35666,19 @@
         <v>542</v>
       </c>
       <c r="B1198" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1198" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1198" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="E1198" t="s">
-        <v>2058</v>
+        <v>2661</v>
       </c>
       <c r="F1198" t="s">
-        <v>2059</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="1199">
@@ -35680,19 +35686,19 @@
         <v>542</v>
       </c>
       <c r="B1199" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1199" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1199" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="E1199" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="F1199" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="1200">
@@ -35703,16 +35709,16 @@
         <v>1949</v>
       </c>
       <c r="C1200" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1200" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="E1200" t="s">
-        <v>2664</v>
+        <v>2667</v>
       </c>
       <c r="F1200" t="s">
-        <v>2665</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1201">
@@ -35720,19 +35726,19 @@
         <v>542</v>
       </c>
       <c r="B1201" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1201" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1201" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="E1201" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="F1201" t="s">
-        <v>1967</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="1202">
@@ -35740,19 +35746,19 @@
         <v>542</v>
       </c>
       <c r="B1202" t="s">
-        <v>1942</v>
+        <v>1964</v>
       </c>
       <c r="C1202" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1202" t="s">
-        <v>2668</v>
+        <v>2671</v>
       </c>
       <c r="E1202" t="s">
-        <v>2669</v>
+        <v>2473</v>
       </c>
       <c r="F1202" t="s">
-        <v>2670</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1203">
@@ -35760,19 +35766,19 @@
         <v>542</v>
       </c>
       <c r="B1203" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1203" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1203" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="E1203" t="s">
-        <v>2473</v>
+        <v>2673</v>
       </c>
       <c r="F1203" t="s">
-        <v>2474</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="1204">
@@ -35780,19 +35786,19 @@
         <v>542</v>
       </c>
       <c r="B1204" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1204" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1204" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="E1204" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="F1204" t="s">
-        <v>2674</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1205">
@@ -35803,16 +35809,16 @@
         <v>1949</v>
       </c>
       <c r="C1205" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1205" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="E1205" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="F1205" t="s">
-        <v>2280</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1206">
@@ -35820,19 +35826,19 @@
         <v>542</v>
       </c>
       <c r="B1206" t="s">
-        <v>1949</v>
+        <v>1964</v>
       </c>
       <c r="C1206" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1206" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="E1206" t="s">
-        <v>2678</v>
+        <v>2061</v>
       </c>
       <c r="F1206" t="s">
-        <v>1967</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1207">
@@ -35840,19 +35846,19 @@
         <v>542</v>
       </c>
       <c r="B1207" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1207" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1207" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="E1207" t="s">
-        <v>2061</v>
+        <v>2681</v>
       </c>
       <c r="F1207" t="s">
-        <v>2062</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1208">
@@ -35863,13 +35869,13 @@
         <v>1942</v>
       </c>
       <c r="C1208" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1208" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="E1208" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="F1208" t="s">
         <v>2625</v>
@@ -35883,16 +35889,16 @@
         <v>1942</v>
       </c>
       <c r="C1209" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1209" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="E1209" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="F1209" t="s">
-        <v>2625</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1210">
@@ -35900,19 +35906,19 @@
         <v>542</v>
       </c>
       <c r="B1210" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1210" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1210" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="E1210" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="F1210" t="s">
-        <v>1967</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1211">
@@ -35920,19 +35926,19 @@
         <v>542</v>
       </c>
       <c r="B1211" t="s">
-        <v>1949</v>
+        <v>1964</v>
       </c>
       <c r="C1211" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1211" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="E1211" t="s">
-        <v>2687</v>
+        <v>2499</v>
       </c>
       <c r="F1211" t="s">
-        <v>2688</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1212">
@@ -35940,19 +35946,19 @@
         <v>542</v>
       </c>
       <c r="B1212" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1212" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1212" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="E1212" t="s">
-        <v>2499</v>
+        <v>2691</v>
       </c>
       <c r="F1212" t="s">
-        <v>2500</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1213">
@@ -35960,19 +35966,19 @@
         <v>542</v>
       </c>
       <c r="B1213" t="s">
-        <v>1942</v>
+        <v>2529</v>
       </c>
       <c r="C1213" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1213" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="E1213" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="F1213" t="s">
-        <v>2041</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1214">
@@ -35980,19 +35986,19 @@
         <v>542</v>
       </c>
       <c r="B1214" t="s">
-        <v>2529</v>
+        <v>1964</v>
       </c>
       <c r="C1214" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1214" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="E1214" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="F1214" t="s">
-        <v>2532</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1215">
@@ -36003,16 +36009,16 @@
         <v>1964</v>
       </c>
       <c r="C1215" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1215" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="E1215" t="s">
-        <v>2695</v>
+        <v>2120</v>
       </c>
       <c r="F1215" t="s">
-        <v>2696</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1216">
@@ -36020,19 +36026,19 @@
         <v>542</v>
       </c>
       <c r="B1216" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1216" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1216" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="E1216" t="s">
-        <v>2120</v>
+        <v>2699</v>
       </c>
       <c r="F1216" t="s">
-        <v>2121</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1217">
@@ -36043,13 +36049,13 @@
         <v>1942</v>
       </c>
       <c r="C1217" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1217" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="E1217" t="s">
-        <v>2699</v>
+        <v>1330</v>
       </c>
       <c r="F1217" t="s">
         <v>1967</v>
@@ -36060,19 +36066,19 @@
         <v>542</v>
       </c>
       <c r="B1218" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1218" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1218" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="E1218" t="s">
-        <v>1330</v>
+        <v>2137</v>
       </c>
       <c r="F1218" t="s">
-        <v>1967</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1219">
@@ -36083,16 +36089,16 @@
         <v>1949</v>
       </c>
       <c r="C1219" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1219" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="E1219" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="F1219" t="s">
-        <v>2702</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1220">
@@ -36103,16 +36109,16 @@
         <v>1949</v>
       </c>
       <c r="C1220" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1220" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="E1220" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="F1220" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1221">
@@ -36120,19 +36126,19 @@
         <v>542</v>
       </c>
       <c r="B1221" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1221" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1221" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="E1221" t="s">
-        <v>2143</v>
+        <v>2706</v>
       </c>
       <c r="F1221" t="s">
-        <v>2515</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1222">
@@ -36140,19 +36146,19 @@
         <v>542</v>
       </c>
       <c r="B1222" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1222" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1222" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="E1222" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="F1222" t="s">
-        <v>2707</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1223">
@@ -36163,13 +36169,13 @@
         <v>1949</v>
       </c>
       <c r="C1223" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1223" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="E1223" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="F1223" t="s">
         <v>2280</v>
@@ -36183,16 +36189,16 @@
         <v>1949</v>
       </c>
       <c r="C1224" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1224" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="E1224" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="F1224" t="s">
-        <v>2280</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1225">
@@ -36200,19 +36206,19 @@
         <v>542</v>
       </c>
       <c r="B1225" t="s">
-        <v>1949</v>
+        <v>1964</v>
       </c>
       <c r="C1225" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1225" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="E1225" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="F1225" t="s">
-        <v>22</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1226">
@@ -36220,19 +36226,19 @@
         <v>542</v>
       </c>
       <c r="B1226" t="s">
-        <v>1964</v>
+        <v>1942</v>
       </c>
       <c r="C1226" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1226" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="E1226" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="F1226" t="s">
-        <v>2716</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1227">
@@ -36243,16 +36249,16 @@
         <v>1942</v>
       </c>
       <c r="C1227" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1227" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="E1227" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="F1227" t="s">
-        <v>1979</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="1228">
@@ -36263,16 +36269,16 @@
         <v>1942</v>
       </c>
       <c r="C1228" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1228" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
       <c r="E1228" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
       <c r="F1228" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="1229">
@@ -36280,19 +36286,19 @@
         <v>542</v>
       </c>
       <c r="B1229" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1229" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1229" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="E1229" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="F1229" t="s">
-        <v>2724</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1230">
@@ -36300,19 +36306,19 @@
         <v>542</v>
       </c>
       <c r="B1230" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1230" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1230" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="E1230" t="s">
-        <v>2726</v>
+        <v>2188</v>
       </c>
       <c r="F1230" t="s">
-        <v>1967</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1231">
@@ -36320,19 +36326,19 @@
         <v>542</v>
       </c>
       <c r="B1231" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1231" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1231" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E1231" t="s">
-        <v>2188</v>
+        <v>2729</v>
       </c>
       <c r="F1231" t="s">
-        <v>2189</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1232">
@@ -36340,19 +36346,19 @@
         <v>542</v>
       </c>
       <c r="B1232" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1232" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1232" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="E1232" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="F1232" t="s">
-        <v>2059</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="1233">
@@ -36363,16 +36369,16 @@
         <v>1942</v>
       </c>
       <c r="C1233" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1233" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="E1233" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="F1233" t="s">
-        <v>2732</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1234">
@@ -36380,19 +36386,19 @@
         <v>542</v>
       </c>
       <c r="B1234" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1234" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1234" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="E1234" t="s">
-        <v>2734</v>
+        <v>2235</v>
       </c>
       <c r="F1234" t="s">
-        <v>1967</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1235">
@@ -36403,16 +36409,16 @@
         <v>1949</v>
       </c>
       <c r="C1235" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1235" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="E1235" t="s">
-        <v>2235</v>
+        <v>2738</v>
       </c>
       <c r="F1235" t="s">
-        <v>2236</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1236">
@@ -36420,19 +36426,19 @@
         <v>542</v>
       </c>
       <c r="B1236" t="s">
-        <v>1949</v>
+        <v>1964</v>
       </c>
       <c r="C1236" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1236" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="E1236" t="s">
-        <v>2738</v>
+        <v>2204</v>
       </c>
       <c r="F1236" t="s">
-        <v>2739</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1237">
@@ -36440,19 +36446,19 @@
         <v>542</v>
       </c>
       <c r="B1237" t="s">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="C1237" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1237" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="E1237" t="s">
-        <v>2204</v>
+        <v>2742</v>
       </c>
       <c r="F1237" t="s">
-        <v>2158</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1238">
@@ -36460,19 +36466,19 @@
         <v>542</v>
       </c>
       <c r="B1238" t="s">
-        <v>1949</v>
+        <v>1964</v>
       </c>
       <c r="C1238" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1238" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="E1238" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="F1238" t="s">
-        <v>2625</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1239">
@@ -36480,19 +36486,19 @@
         <v>542</v>
       </c>
       <c r="B1239" t="s">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="C1239" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1239" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="E1239" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="F1239" t="s">
-        <v>2745</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1240">
@@ -36503,16 +36509,16 @@
         <v>1949</v>
       </c>
       <c r="C1240" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1240" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
       <c r="E1240" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="F1240" t="s">
-        <v>2479</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1241">
@@ -36523,13 +36529,13 @@
         <v>1949</v>
       </c>
       <c r="C1241" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1241" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="E1241" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="F1241" t="s">
         <v>2551</v>
@@ -36540,19 +36546,19 @@
         <v>542</v>
       </c>
       <c r="B1242" t="s">
-        <v>1949</v>
+        <v>2529</v>
       </c>
       <c r="C1242" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1242" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="E1242" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="F1242" t="s">
-        <v>2551</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1243">
@@ -36560,19 +36566,19 @@
         <v>542</v>
       </c>
       <c r="B1243" t="s">
-        <v>2529</v>
+        <v>1949</v>
       </c>
       <c r="C1243" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1243" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="E1243" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="F1243" t="s">
-        <v>2532</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1244">
@@ -36583,16 +36589,16 @@
         <v>1949</v>
       </c>
       <c r="C1244" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1244" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="E1244" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="F1244" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1245">
@@ -36603,16 +36609,16 @@
         <v>1949</v>
       </c>
       <c r="C1245" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1245" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="E1245" t="s">
-        <v>2758</v>
+        <v>2222</v>
       </c>
       <c r="F1245" t="s">
-        <v>2759</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1246">
@@ -36623,16 +36629,16 @@
         <v>1949</v>
       </c>
       <c r="C1246" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1246" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="E1246" t="s">
-        <v>2222</v>
+        <v>2228</v>
       </c>
       <c r="F1246" t="s">
-        <v>2223</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1247">
@@ -36640,19 +36646,19 @@
         <v>542</v>
       </c>
       <c r="B1247" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1247" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1247" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="E1247" t="s">
-        <v>2228</v>
+        <v>2763</v>
       </c>
       <c r="F1247" t="s">
-        <v>22</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1248">
@@ -36660,19 +36666,19 @@
         <v>542</v>
       </c>
       <c r="B1248" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1248" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1248" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="E1248" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="F1248" t="s">
-        <v>2233</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1249">
@@ -36683,16 +36689,16 @@
         <v>1949</v>
       </c>
       <c r="C1249" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1249" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="E1249" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="F1249" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1250">
@@ -36700,19 +36706,19 @@
         <v>542</v>
       </c>
       <c r="B1250" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1250" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1250" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="E1250" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="F1250" t="s">
-        <v>2769</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1251">
@@ -36720,19 +36726,19 @@
         <v>542</v>
       </c>
       <c r="B1251" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1251" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1251" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="E1251" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="F1251" t="s">
-        <v>1967</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1252">
@@ -36743,16 +36749,16 @@
         <v>1949</v>
       </c>
       <c r="C1252" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1252" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="E1252" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="F1252" t="s">
-        <v>2774</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1253">
@@ -36760,19 +36766,19 @@
         <v>542</v>
       </c>
       <c r="B1253" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1253" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1253" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="E1253" t="s">
-        <v>2776</v>
+        <v>2253</v>
       </c>
       <c r="F1253" t="s">
-        <v>1967</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1254">
@@ -36780,19 +36786,19 @@
         <v>542</v>
       </c>
       <c r="B1254" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="C1254" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1254" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="E1254" t="s">
-        <v>2253</v>
+        <v>2261</v>
       </c>
       <c r="F1254" t="s">
-        <v>2254</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1255">
@@ -36800,19 +36806,19 @@
         <v>542</v>
       </c>
       <c r="B1255" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="C1255" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1255" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="E1255" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="F1255" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1256">
@@ -36823,16 +36829,16 @@
         <v>1942</v>
       </c>
       <c r="C1256" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1256" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="E1256" t="s">
-        <v>2264</v>
+        <v>2276</v>
       </c>
       <c r="F1256" t="s">
-        <v>2265</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1257">
@@ -36840,19 +36846,19 @@
         <v>542</v>
       </c>
       <c r="B1257" t="s">
-        <v>1942</v>
+        <v>2529</v>
       </c>
       <c r="C1257" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1257" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E1257" t="s">
-        <v>2276</v>
+        <v>2782</v>
       </c>
       <c r="F1257" t="s">
-        <v>2277</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1258">
@@ -36863,7 +36869,7 @@
         <v>1986</v>
       </c>
       <c r="C1258" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1258" t="s">
         <v>2783</v>
@@ -36883,7 +36889,7 @@
         <v>1942</v>
       </c>
       <c r="C1259" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1259" t="s">
         <v>2785</v>
@@ -36903,7 +36909,7 @@
         <v>1942</v>
       </c>
       <c r="C1260" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1260" t="s">
         <v>2786</v>
@@ -36923,7 +36929,7 @@
         <v>1964</v>
       </c>
       <c r="C1261" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1261" t="s">
         <v>2789</v>
@@ -36943,7 +36949,7 @@
         <v>1942</v>
       </c>
       <c r="C1262" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1262" t="s">
         <v>2790</v>
@@ -36963,7 +36969,7 @@
         <v>613</v>
       </c>
       <c r="C1263" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1263" t="s">
         <v>2792</v>
@@ -36983,7 +36989,7 @@
         <v>613</v>
       </c>
       <c r="C1264" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1264" t="s">
         <v>2794</v>
@@ -37003,7 +37009,7 @@
         <v>613</v>
       </c>
       <c r="C1265" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1265" t="s">
         <v>2796</v>
@@ -37023,7 +37029,7 @@
         <v>613</v>
       </c>
       <c r="C1266" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1266" t="s">
         <v>2798</v>
@@ -37043,7 +37049,7 @@
         <v>613</v>
       </c>
       <c r="C1267" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1267" t="s">
         <v>2800</v>
@@ -37063,7 +37069,7 @@
         <v>542</v>
       </c>
       <c r="C1268" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1268" t="s">
         <v>2801</v>
@@ -37083,7 +37089,7 @@
         <v>2803</v>
       </c>
       <c r="C1269" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1269" t="s">
         <v>2804</v>
@@ -37103,7 +37109,7 @@
         <v>613</v>
       </c>
       <c r="C1270" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1270" t="s">
         <v>2807</v>
@@ -37123,7 +37129,7 @@
         <v>613</v>
       </c>
       <c r="C1271" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1271" t="s">
         <v>2808</v>
@@ -37143,7 +37149,7 @@
         <v>10</v>
       </c>
       <c r="C1272" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1272" t="s">
         <v>2810</v>
@@ -37163,7 +37169,7 @@
         <v>613</v>
       </c>
       <c r="C1273" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1273" t="s">
         <v>2812</v>
@@ -37183,7 +37189,7 @@
         <v>613</v>
       </c>
       <c r="C1274" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1274" t="s">
         <v>2813</v>
@@ -37203,7 +37209,7 @@
         <v>613</v>
       </c>
       <c r="C1275" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1275" t="s">
         <v>2814</v>
@@ -37223,7 +37229,7 @@
         <v>613</v>
       </c>
       <c r="C1276" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1276" t="s">
         <v>2816</v>
@@ -37243,7 +37249,7 @@
         <v>613</v>
       </c>
       <c r="C1277" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1277" t="s">
         <v>2818</v>
@@ -37263,7 +37269,7 @@
         <v>613</v>
       </c>
       <c r="C1278" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1278" t="s">
         <v>2819</v>
@@ -37283,7 +37289,7 @@
         <v>613</v>
       </c>
       <c r="C1279" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1279" t="s">
         <v>2820</v>
@@ -37303,7 +37309,7 @@
         <v>613</v>
       </c>
       <c r="C1280" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1280" t="s">
         <v>2821</v>
@@ -37323,7 +37329,7 @@
         <v>613</v>
       </c>
       <c r="C1281" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1281" t="s">
         <v>2822</v>
@@ -37343,7 +37349,7 @@
         <v>613</v>
       </c>
       <c r="C1282" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="D1282" t="s">
         <v>2823</v>
